--- a/flet_clip_button/data.xlsx
+++ b/flet_clip_button/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junichi\Git\Python\flet_clip_button\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA453F2E-81D7-49A5-8F78-E34139BA8569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB17A1-85BE-49E6-ADF8-602B6EB2E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="3630" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="8355" windowWidth="17160" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,24 +35,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>https://www.youtube.com/watch?v=2IZbzRj3CJk</t>
-  </si>
-  <si>
-    <t>ウェカピポ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Magenta Magenta</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qbEx4fK6TKE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=N7mXysNhgw8</t>
-  </si>
-  <si>
-    <t>イルカ</t>
-    <phoneticPr fontId="1"/>
+    <t>Diggy-MO'</t>
+  </si>
+  <si>
+    <t>メインMC・ボーカル</t>
+  </si>
+  <si>
+    <t>Bro.Hi</t>
+  </si>
+  <si>
+    <t>ヒューマンビートボックス・MC</t>
+  </si>
+  <si>
+    <t>Shinnosuke</t>
+  </si>
+  <si>
+    <t>キーボード・プログラミング</t>
   </si>
 </sst>
 </file>
@@ -416,17 +414,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -439,10 +437,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/flet_clip_button/data.xlsx
+++ b/flet_clip_button/data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junichi\Git\Python\flet_clip_button\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junichi\dev\technical_training\Flet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB17A1-85BE-49E6-ADF8-602B6EB2E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80416942-4053-4C6D-AC99-A05C151DE978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="8355" windowWidth="17160" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13065" yWindow="2445" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="so_members" sheetId="1" r:id="rId1"/>
+    <sheet name="release" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Diggy-MO'</t>
   </si>
@@ -51,6 +52,21 @@
   </si>
   <si>
     <t>キーボード・プログラミング</t>
+  </si>
+  <si>
+    <t>ALIVE</t>
+  </si>
+  <si>
+    <t>Catwalk</t>
+  </si>
+  <si>
+    <t>Magenta Magenta</t>
+  </si>
+  <si>
+    <t>2006年</t>
+  </si>
+  <si>
+    <t>2005年</t>
   </si>
 </sst>
 </file>
@@ -410,7 +426,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -447,4 +463,46 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7D8009-6A00-49F5-8046-7C63C783B7A8}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>